--- a/data/2020-03-17/Senior Cubers Worldwide - Weekly Competition - 2020-03-17.xlsx
+++ b/data/2020-03-17/Senior Cubers Worldwide - Weekly Competition - 2020-03-17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-03-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EC17BF-AB72-47E9-88A7-D85BEE0E7F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB58C39C-D331-4279-94CB-B5F476DE5F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,9 +547,6 @@
     <t>https://www.facebook.com/events/280686576235146/permalink/283457932624677/</t>
   </si>
   <si>
-    <t>Tim Salay</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/events/280686576235146/permalink/282751479361989/</t>
   </si>
   <si>
@@ -629,6 +626,9 @@
   </si>
   <si>
     <t>3:11.68</t>
+  </si>
+  <si>
+    <t>Timothy Salay</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,6 +973,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1193,7 +1194,9 @@
   </sheetPr>
   <dimension ref="A1:N1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1283,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>21</v>
@@ -1321,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>21</v>
@@ -2052,8 +2055,8 @@
       <c r="A24" s="15">
         <v>21</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>174</v>
+      <c r="B24" s="75" t="s">
+        <v>201</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>23</v>
@@ -2083,7 +2086,7 @@
         <v>30.89</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
@@ -2093,7 +2096,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>23</v>
@@ -2123,7 +2126,7 @@
         <v>33.880000000000003</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
@@ -2133,7 +2136,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>23</v>
@@ -2161,7 +2164,7 @@
         <v>38.4</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -2171,7 +2174,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="37" t="s">
         <v>20</v>
@@ -2198,7 +2201,7 @@
         <v>43.71</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -2236,7 +2239,7 @@
         <v>38.83</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
@@ -14983,7 +14986,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>21</v>
@@ -15020,7 +15023,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>21</v>
@@ -15479,7 +15482,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>164</v>
@@ -15489,7 +15492,7 @@
         <v>165</v>
       </c>
       <c r="H18" s="72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I18" s="41" t="s">
         <v>166</v>
@@ -24251,7 +24254,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>21</v>
@@ -32731,7 +32734,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="73" t="s">
         <v>3</v>
@@ -32760,16 +32763,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="67" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="69" t="s">
         <v>185</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -32777,7 +32780,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>20</v>
@@ -32787,7 +32790,7 @@
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
@@ -32795,7 +32798,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>20</v>
@@ -32805,7 +32808,7 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -32813,7 +32816,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>21</v>
@@ -32823,10 +32826,10 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -32844,7 +32847,7 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -32852,7 +32855,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>21</v>
@@ -32862,7 +32865,7 @@
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -32870,7 +32873,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>21</v>
@@ -32880,7 +32883,7 @@
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">

--- a/data/2020-03-17/Senior Cubers Worldwide - Weekly Competition - 2020-03-17.xlsx
+++ b/data/2020-03-17/Senior Cubers Worldwide - Weekly Competition - 2020-03-17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-03-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB58C39C-D331-4279-94CB-B5F476DE5F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075641EC-6F30-44B2-A99D-1C494767FAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -487,9 +487,6 @@
     <t>https://www.facebook.com/events/211732526904866/permalink/213592526718866/</t>
   </si>
   <si>
-    <t>장준호</t>
-  </si>
-  <si>
     <t>3:55.15</t>
   </si>
   <si>
@@ -629,6 +626,9 @@
   </si>
   <si>
     <t>Timothy Salay</t>
+  </si>
+  <si>
+    <t>Jang Junho (장준호)</t>
   </si>
 </sst>
 </file>
@@ -971,9 +971,9 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,8 +1194,8 @@
   </sheetPr>
   <dimension ref="A1:N1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>21</v>
@@ -1324,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>21</v>
@@ -1854,7 +1854,7 @@
         <v>25</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M18" s="46"/>
       <c r="N18" s="24"/>
@@ -1892,7 +1892,7 @@
         <v>27.78</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
@@ -1902,7 +1902,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>23</v>
@@ -1932,7 +1932,7 @@
         <v>25.59</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
@@ -1970,7 +1970,7 @@
         <v>23.78</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
@@ -1980,7 +1980,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>23</v>
@@ -2008,7 +2008,7 @@
         <v>25.7</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
@@ -2046,7 +2046,7 @@
         <v>34</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
@@ -2055,8 +2055,8 @@
       <c r="A24" s="15">
         <v>21</v>
       </c>
-      <c r="B24" s="75" t="s">
-        <v>201</v>
+      <c r="B24" s="73" t="s">
+        <v>200</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>23</v>
@@ -2086,7 +2086,7 @@
         <v>30.89</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
@@ -2096,7 +2096,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>23</v>
@@ -2126,7 +2126,7 @@
         <v>33.880000000000003</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
@@ -2136,7 +2136,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>23</v>
@@ -2164,7 +2164,7 @@
         <v>38.4</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -2174,7 +2174,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="37" t="s">
         <v>20</v>
@@ -2201,7 +2201,7 @@
         <v>43.71</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -2211,7 +2211,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>20</v>
@@ -2239,7 +2239,7 @@
         <v>38.83</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
@@ -14857,8 +14857,8 @@
   </sheetPr>
   <dimension ref="A1:M1051"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14986,7 +14986,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>21</v>
@@ -15023,7 +15023,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>21</v>
@@ -15476,26 +15476,26 @@
         <v>15</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="I18" s="41" t="s">
         <v>165</v>
-      </c>
-      <c r="H18" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>166</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>101</v>
@@ -15504,7 +15504,7 @@
         <v>101</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
@@ -15512,35 +15512,35 @@
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="44" t="s">
         <v>155</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>156</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="I19" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="J19" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="J19" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="K19" s="41" t="s">
+      <c r="L19" s="43" t="s">
         <v>161</v>
-      </c>
-      <c r="L19" s="43" t="s">
-        <v>162</v>
       </c>
       <c r="M19" s="21"/>
     </row>
@@ -24254,7 +24254,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>21</v>
@@ -32734,14 +32734,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:7" ht="12.75">
@@ -32763,16 +32763,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="67" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="69" t="s">
         <v>184</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -32780,7 +32780,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>20</v>
@@ -32790,7 +32790,7 @@
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
@@ -32798,7 +32798,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>20</v>
@@ -32808,7 +32808,7 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -32816,7 +32816,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>21</v>
@@ -32826,10 +32826,10 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -32847,7 +32847,7 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -32855,7 +32855,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>21</v>
@@ -32865,7 +32865,7 @@
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -32873,7 +32873,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>21</v>
@@ -32883,7 +32883,7 @@
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">

--- a/data/2020-03-17/Senior Cubers Worldwide - Weekly Competition - 2020-03-17.xlsx
+++ b/data/2020-03-17/Senior Cubers Worldwide - Weekly Competition - 2020-03-17.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-03-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075641EC-6F30-44B2-A99D-1C494767FAE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD305438-268A-4916-A455-8959C9EE7C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="201">
   <si>
     <t>4x4x4</t>
   </si>
@@ -512,9 +512,6 @@
   </si>
   <si>
     <t>Peter Douthwright</t>
-  </si>
-  <si>
-    <t>2:52.46</t>
   </si>
   <si>
     <t>3:16.97</t>
@@ -1195,7 +1192,7 @@
   <dimension ref="A1:N1074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1286,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>21</v>
@@ -1324,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>21</v>
@@ -1892,7 +1889,7 @@
         <v>27.78</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
@@ -1902,7 +1899,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>23</v>
@@ -1911,7 +1908,7 @@
         <v>25.66</v>
       </c>
       <c r="E20" s="19">
-        <v>25.4</v>
+        <v>25.05</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>56</v>
@@ -1932,7 +1929,7 @@
         <v>25.59</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
@@ -1970,7 +1967,7 @@
         <v>23.78</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
@@ -1980,7 +1977,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>23</v>
@@ -2008,7 +2005,7 @@
         <v>25.7</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
@@ -2046,7 +2043,7 @@
         <v>34</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
@@ -2056,7 +2053,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>23</v>
@@ -2086,7 +2083,7 @@
         <v>30.89</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
@@ -2096,7 +2093,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>23</v>
@@ -2126,7 +2123,7 @@
         <v>33.880000000000003</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
@@ -2136,7 +2133,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>23</v>
@@ -2164,7 +2161,7 @@
         <v>38.4</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -2174,7 +2171,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" s="37" t="s">
         <v>20</v>
@@ -2201,7 +2198,7 @@
         <v>43.71</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -2239,7 +2236,7 @@
         <v>38.83</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
@@ -14858,7 +14855,7 @@
   <dimension ref="A1:M1051"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14986,7 +14983,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>21</v>
@@ -15023,7 +15020,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>21</v>
@@ -15482,20 +15479,20 @@
         <v>20</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>163</v>
+        <v>198</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>197</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="41" t="s">
         <v>164</v>
-      </c>
-      <c r="H18" s="72" t="s">
-        <v>198</v>
-      </c>
-      <c r="I18" s="41" t="s">
-        <v>165</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>101</v>
@@ -15504,7 +15501,7 @@
         <v>101</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
@@ -15512,7 +15509,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>23</v>
@@ -24254,7 +24251,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>21</v>
@@ -32734,7 +32731,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="74" t="s">
         <v>3</v>
@@ -32763,16 +32760,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" s="67" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="69" t="s">
         <v>183</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -32780,7 +32777,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>20</v>
@@ -32790,7 +32787,7 @@
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
@@ -32798,7 +32795,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>20</v>
@@ -32808,7 +32805,7 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -32816,7 +32813,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>21</v>
@@ -32826,10 +32823,10 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>189</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -32847,7 +32844,7 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -32855,7 +32852,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>21</v>
@@ -32865,7 +32862,7 @@
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -32873,7 +32870,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>21</v>
@@ -32883,7 +32880,7 @@
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">

--- a/data/2020-03-17/Senior Cubers Worldwide - Weekly Competition - 2020-03-17.xlsx
+++ b/data/2020-03-17/Senior Cubers Worldwide - Weekly Competition - 2020-03-17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-03-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD305438-268A-4916-A455-8959C9EE7C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A58659-89BF-41D1-A4C7-1AA2496BDE85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -632,6 +632,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="25">
     <font>
       <sz val="10"/>
@@ -800,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -969,6 +972,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -1191,8 +1197,8 @@
   </sheetPr>
   <dimension ref="A1:N1074"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2213,27 +2219,27 @@
       <c r="C28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="19">
-        <v>44.692999999999998</v>
-      </c>
-      <c r="E28" s="19">
+      <c r="D28" s="74">
+        <v>44.826999999999998</v>
+      </c>
+      <c r="E28" s="74">
         <v>38.828000000000003</v>
       </c>
       <c r="F28" s="17"/>
-      <c r="G28" s="19">
-        <v>45.29</v>
-      </c>
-      <c r="H28" s="19">
-        <v>45.48</v>
-      </c>
-      <c r="I28" s="19">
-        <v>43.32</v>
-      </c>
-      <c r="J28" s="19">
-        <v>46.88</v>
-      </c>
-      <c r="K28" s="19">
-        <v>38.83</v>
+      <c r="G28" s="74">
+        <v>45.284999999999997</v>
+      </c>
+      <c r="H28" s="74">
+        <v>45.877000000000002</v>
+      </c>
+      <c r="I28" s="74">
+        <v>43.317999999999998</v>
+      </c>
+      <c r="J28" s="74">
+        <v>46.881</v>
+      </c>
+      <c r="K28" s="74">
+        <v>38.828000000000003</v>
       </c>
       <c r="L28" s="22" t="s">
         <v>179</v>
@@ -14854,8 +14860,8 @@
   </sheetPr>
   <dimension ref="A1:M1051"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32733,12 +32739,12 @@
       <c r="A1" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:7" ht="12.75">
